--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_NgocKimAnh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_NgocKimAnh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="30" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="106">
   <si>
     <t>STT</t>
   </si>
@@ -240,9 +240,6 @@
     <t>XỬ LÝ THIẾT BỊ BẢO HÀNH THÁNG 05 NĂM 2021</t>
   </si>
   <si>
-    <t>Vietglobal</t>
-  </si>
-  <si>
     <t>Còn BH</t>
   </si>
   <si>
@@ -337,6 +334,30 @@
   </si>
   <si>
     <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>Thay MCU, nạp lại FW cho thiết bị</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>Thay MCU, nạp lại FW</t>
+  </si>
+  <si>
+    <t>Thiết bị reset liên tục</t>
+  </si>
+  <si>
+    <t>Ngọc Kim Anh</t>
+  </si>
+  <si>
+    <t>Đổi mới</t>
+  </si>
+  <si>
+    <t>ĐM</t>
+  </si>
+  <si>
+    <t>ID tb mới : 868183038466962</t>
   </si>
 </sst>
 </file>
@@ -1111,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1178,7 +1199,7 @@
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
       <c r="E2" s="81" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="F2" s="81"/>
       <c r="G2" s="5"/>
@@ -1327,32 +1348,34 @@
       <c r="B6" s="37">
         <v>44333</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44336</v>
+      </c>
       <c r="D6" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="39">
         <v>864811037150013</v>
       </c>
       <c r="F6" s="53"/>
       <c r="G6" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="K6" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="N6" s="42"/>
       <c r="O6" s="40" t="s">
@@ -1362,10 +1385,10 @@
         <v>62</v>
       </c>
       <c r="Q6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="R6" s="38" t="s">
         <v>94</v>
-      </c>
-      <c r="R6" s="38" t="s">
-        <v>95</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="75"/>
@@ -2923,7 +2946,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2989,7 +3012,7 @@
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
       <c r="E2" s="81" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="F2" s="81"/>
       <c r="G2" s="5"/>
@@ -3138,31 +3161,45 @@
       <c r="B6" s="37">
         <v>44333</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44336</v>
+      </c>
       <c r="D6" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="39">
         <v>869696043503940</v>
       </c>
       <c r="F6" s="53"/>
       <c r="G6" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="51"/>
       <c r="J6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K6" s="61"/>
       <c r="L6" s="40"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="4"/>
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="T6" s="75"/>
       <c r="U6" s="85" t="s">
         <v>18</v>
@@ -3609,7 +3646,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -3758,7 +3795,7 @@
       </c>
       <c r="V26" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="14"/>
     </row>
@@ -4110,7 +4147,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4717,8 +4754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4784,7 +4821,7 @@
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
       <c r="E2" s="81" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="F2" s="81"/>
       <c r="G2" s="5"/>
@@ -4933,7 +4970,9 @@
       <c r="B6" s="37">
         <v>44333</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44336</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>56</v>
       </c>
@@ -4942,21 +4981,21 @@
       </c>
       <c r="F6" s="53"/>
       <c r="G6" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L6" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M6" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N6" s="42"/>
       <c r="O6" s="40" t="s">
@@ -4988,7 +5027,9 @@
       <c r="B7" s="37">
         <v>44333</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44336</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>56</v>
       </c>
@@ -4997,21 +5038,21 @@
       </c>
       <c r="F7" s="53"/>
       <c r="G7" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M7" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N7" s="42"/>
       <c r="O7" s="40" t="s">
@@ -5041,7 +5082,9 @@
       <c r="B8" s="37">
         <v>44333</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44336</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>56</v>
       </c>
@@ -5050,21 +5093,21 @@
       </c>
       <c r="F8" s="53"/>
       <c r="G8" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H8" s="38"/>
       <c r="I8" s="51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J8" s="40"/>
       <c r="K8" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L8" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M8" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N8" s="42"/>
       <c r="O8" s="40" t="s">
@@ -6574,8 +6617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6641,7 +6684,7 @@
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
       <c r="E2" s="81" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="F2" s="81"/>
       <c r="G2" s="5"/>
@@ -6790,7 +6833,9 @@
       <c r="B6" s="37">
         <v>44333</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44336</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>44</v>
       </c>
@@ -6799,23 +6844,23 @@
       </c>
       <c r="F6" s="53"/>
       <c r="G6" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K6" s="40" t="s">
         <v>63</v>
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N6" s="42"/>
       <c r="O6" s="40" t="s">
@@ -6847,7 +6892,9 @@
       <c r="B7" s="37">
         <v>44333</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44336</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>44</v>
       </c>
@@ -6856,27 +6903,37 @@
       </c>
       <c r="F7" s="53"/>
       <c r="G7" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H7" s="53"/>
       <c r="I7" s="51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K7" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L7" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="N7" s="42"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="64"/>
       <c r="U7" s="86"/>
@@ -6892,7 +6949,9 @@
       <c r="B8" s="37">
         <v>44333</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44336</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>44</v>
       </c>
@@ -6901,25 +6960,35 @@
       </c>
       <c r="F8" s="53"/>
       <c r="G8" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I8" s="51"/>
       <c r="J8" s="1"/>
       <c r="K8" s="51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L8" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="M8" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="64"/>
       <c r="U8" s="86"/>
@@ -6935,7 +7004,9 @@
       <c r="B9" s="37">
         <v>44333</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44336</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>44</v>
       </c>
@@ -6944,21 +7015,33 @@
       </c>
       <c r="F9" s="53"/>
       <c r="G9" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H9" s="53"/>
       <c r="I9" s="51"/>
       <c r="J9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="1"/>
+      <c r="L9" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="N9" s="42"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="86"/>
@@ -6974,7 +7057,9 @@
       <c r="B10" s="37">
         <v>44333</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="37">
+        <v>44336</v>
+      </c>
       <c r="D10" s="38" t="s">
         <v>44</v>
       </c>
@@ -6983,19 +7068,37 @@
       </c>
       <c r="F10" s="53"/>
       <c r="G10" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="53"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="1"/>
+      <c r="L10" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="N10" s="42"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="P10" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="86"/>
@@ -7011,7 +7114,9 @@
       <c r="B11" s="37">
         <v>44333</v>
       </c>
-      <c r="C11" s="68"/>
+      <c r="C11" s="37">
+        <v>44336</v>
+      </c>
       <c r="D11" s="38" t="s">
         <v>44</v>
       </c>
@@ -7020,21 +7125,21 @@
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H11" s="53"/>
       <c r="I11" s="51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K11" s="40" t="s">
         <v>63</v>
       </c>
       <c r="L11" s="40"/>
       <c r="M11" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="40" t="s">
@@ -7064,7 +7169,9 @@
       <c r="B12" s="37">
         <v>44333</v>
       </c>
-      <c r="C12" s="68"/>
+      <c r="C12" s="37">
+        <v>44336</v>
+      </c>
       <c r="D12" s="38" t="s">
         <v>44</v>
       </c>
@@ -7073,27 +7180,37 @@
       </c>
       <c r="F12" s="53"/>
       <c r="G12" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I12" s="57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J12" s="40"/>
       <c r="K12" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L12" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="M12" s="40"/>
+      <c r="M12" s="40" t="s">
+        <v>90</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="85" t="s">
@@ -7111,7 +7228,9 @@
       <c r="B13" s="37">
         <v>44333</v>
       </c>
-      <c r="C13" s="68"/>
+      <c r="C13" s="37">
+        <v>44336</v>
+      </c>
       <c r="D13" s="38" t="s">
         <v>44</v>
       </c>
@@ -7120,25 +7239,25 @@
       </c>
       <c r="F13" s="53"/>
       <c r="G13" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I13" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="K13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L13" s="40" t="s">
         <v>63</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="40" t="s">
@@ -7151,7 +7270,7 @@
         <v>19</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
@@ -7168,7 +7287,9 @@
       <c r="B14" s="37">
         <v>44333</v>
       </c>
-      <c r="C14" s="68"/>
+      <c r="C14" s="37">
+        <v>44336</v>
+      </c>
       <c r="D14" s="38" t="s">
         <v>44</v>
       </c>
@@ -7177,21 +7298,21 @@
       </c>
       <c r="F14" s="53"/>
       <c r="G14" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H14" s="53"/>
       <c r="I14" s="51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K14" s="40" t="s">
         <v>63</v>
       </c>
       <c r="L14" s="40"/>
       <c r="M14" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="40" t="s">
@@ -7385,7 +7506,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -7417,7 +7538,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -7630,7 +7751,7 @@
       </c>
       <c r="V28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="14"/>
     </row>
@@ -7662,7 +7783,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -7726,7 +7847,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -7854,7 +7975,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -7918,7 +8039,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -8592,7 +8713,7 @@
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
       <c r="E2" s="81" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="F2" s="81"/>
       <c r="G2" s="5"/>
